--- a/Scanorders2/src/Oleg/OrderformBundle/Resources/Stains.xlsx
+++ b/Scanorders2/src/Oleg/OrderformBundle/Resources/Stains.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="736">
   <si>
     <t>A103 (Melan-A)</t>
   </si>
@@ -2645,8 +2645,8 @@
   <dimension ref="A1:H360"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" activeCellId="32" sqref="A236:XFD236 A231:XFD232 A220:XFD220 A203:XFD203 A198:XFD198 A195:XFD197 A192:XFD192 A185:XFD186 A182:XFD182 A180:XFD180 A178:XFD178 A175:XFD175 A157:XFD158 A161:XFD161 A154:XFD154 A146:XFD146 A143:XFD143 A111:XFD111 A104:XFD104 A100:XFD100 A94:XFD95 A91:XFD91 A87:XFD87 A83:XFD84 A81:XFD81 A76:XFD76 A69:XFD69 A52:XFD52 A29:XFD29 A22:XFD22 A18:XFD18 A16:XFD16 A5:XFD6"/>
+      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9850,9 +9850,6 @@
       <c r="F346" t="s">
         <v>337</v>
       </c>
-      <c r="G346" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
